--- a/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,14 +293,20 @@
     <t>Statut de l'entrée</t>
   </si>
   <si>
-    <t>fr-lm-effet-indesirable.dateDebutFin</t>
+    <t>fr-lm-effet-indesirable.dateDebut</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Date de début et de fin de l'effet indésirable</t>
+    <t>Date de début de l'effet indésirable</t>
+  </si>
+  <si>
+    <t>fr-lm-effet-indesirable.dateFin</t>
+  </si>
+  <si>
+    <t>Date de fin de l'effet indésirable</t>
   </si>
   <si>
     <t>fr-lm-effet-indesirable.valeur</t>
@@ -661,7 +667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1430,7 +1436,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>79</v>
@@ -1445,7 +1451,7 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>95</v>
@@ -1505,7 +1511,7 @@
         <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -1545,13 +1551,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1619,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1630,10 +1636,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1645,13 +1651,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1702,13 +1708,13 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>73</v>
@@ -1719,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1733,7 +1739,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -1745,13 +1751,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1802,13 +1808,13 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
@@ -1819,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1830,7 +1836,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -1845,13 +1851,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1902,10 +1908,10 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -1919,10 +1925,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1930,7 +1936,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
@@ -1945,13 +1951,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2002,18 +2008,118 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-effet-indesirable.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
